--- a/Etiquette/SRO-21_011_069-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21_011_069-ETIQUETTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="414">
   <si>
     <t>CODE POINT TECHNIQUE</t>
   </si>
@@ -793,12 +793,12 @@
     <t>CDI-21-011-069-2016-36 FO</t>
   </si>
   <si>
+    <t>SRO-21-011-069</t>
+  </si>
+  <si>
     <t>CDI-21-011-069-2039-288 FO</t>
   </si>
   <si>
-    <t>SRO-21-011-069</t>
-  </si>
-  <si>
     <t>None-08/2021</t>
   </si>
   <si>
@@ -925,6 +925,9 @@
     <t>21001/68</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>PBO-21-011-069-3029</t>
   </si>
   <si>
@@ -935,9 +938,6 @@
   </si>
   <si>
     <t>PBO-21-011-069-3035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>PBO-21-011-069-3034</t>
@@ -1603,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="B308" s="1">
         <v>2</v>
@@ -8072,10 +8072,10 @@
         <v>9</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="G308" s="1"/>
     </row>
@@ -8093,7 +8093,7 @@
         <v>9</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>24</v>
@@ -8114,7 +8114,7 @@
         <v>9</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>126</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="B311" s="1">
         <v>2</v>
@@ -8135,16 +8135,16 @@
         <v>9</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B312" s="1">
         <v>2</v>
@@ -8156,16 +8156,16 @@
         <v>9</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B313" s="1">
         <v>2</v>
@@ -8177,16 +8177,16 @@
         <v>9</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B314" s="1">
         <v>2</v>
@@ -8198,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>24</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B315" s="1">
         <v>2</v>
@@ -8219,7 +8219,7 @@
         <v>9</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>24</v>
@@ -8240,7 +8240,7 @@
         <v>9</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>24</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B317" s="1">
         <v>2</v>
@@ -8261,7 +8261,7 @@
         <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>24</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B318" s="1">
         <v>2</v>
@@ -8282,7 +8282,7 @@
         <v>9</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>24</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B319" s="1">
         <v>2</v>
@@ -8303,7 +8303,7 @@
         <v>9</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>24</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B320" s="1">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>9</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>24</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B321" s="1">
         <v>2</v>
@@ -8345,7 +8345,7 @@
         <v>9</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>24</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B322" s="1">
         <v>2</v>
@@ -8366,7 +8366,7 @@
         <v>9</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>24</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B323" s="1">
         <v>2</v>
@@ -8387,7 +8387,7 @@
         <v>9</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>24</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B324" s="1">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>9</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>24</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B325" s="1">
         <v>2</v>
@@ -8429,7 +8429,7 @@
         <v>9</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>24</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B326" s="1">
         <v>2</v>
@@ -8450,7 +8450,7 @@
         <v>9</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>24</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B327" s="1">
         <v>2</v>
@@ -8471,7 +8471,7 @@
         <v>9</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>24</v>
@@ -8492,7 +8492,7 @@
         <v>9</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>24</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B329" s="1">
         <v>2</v>
@@ -8513,7 +8513,7 @@
         <v>9</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>24</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B330" s="1">
         <v>2</v>
@@ -8534,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>24</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B331" s="1">
         <v>2</v>
@@ -8555,16 +8555,16 @@
         <v>9</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B332" s="1">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>9</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>24</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B333" s="1">
         <v>2</v>
@@ -8597,16 +8597,16 @@
         <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B334" s="1">
         <v>2</v>
@@ -8621,13 +8621,13 @@
         <v>284</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B335" s="1">
         <v>2</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B336" s="1">
         <v>2</v>
@@ -8663,13 +8663,13 @@
         <v>284</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="B337" s="1">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>284</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G337" s="1"/>
     </row>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="1" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="B407" s="1">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>289</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="G407" s="1"/>
     </row>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="1" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B409" s="1">
         <v>2</v>
@@ -10196,13 +10196,13 @@
         <v>289</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="1" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B410" s="1">
         <v>2</v>
@@ -10217,13 +10217,13 @@
         <v>289</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="1" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="B411" s="1">
         <v>2</v>
@@ -10235,7 +10235,7 @@
         <v>9</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>24</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="1" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B412" s="1">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>9</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>24</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="B413" s="1">
         <v>2</v>
@@ -10277,16 +10277,16 @@
         <v>9</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B414" s="1">
         <v>2</v>
@@ -10298,16 +10298,16 @@
         <v>9</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B415" s="1">
         <v>2</v>
@@ -10319,7 +10319,7 @@
         <v>9</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>24</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="1" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="B416" s="1">
         <v>2</v>
@@ -10340,16 +10340,16 @@
         <v>9</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="1" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B417" s="1">
         <v>2</v>
@@ -10361,16 +10361,16 @@
         <v>9</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B418" s="1">
         <v>2</v>
@@ -10382,7 +10382,7 @@
         <v>9</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>24</v>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B419" s="1">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>9</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>24</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B420" s="1">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>9</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>24</v>
@@ -10445,7 +10445,7 @@
         <v>9</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>24</v>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B422" s="1">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         <v>9</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>24</v>
@@ -10487,7 +10487,7 @@
         <v>9</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>24</v>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B424" s="1">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>9</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>24</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="1" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="B425" s="1">
         <v>2</v>
@@ -10529,7 +10529,7 @@
         <v>9</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>24</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B426" s="1">
         <v>2</v>
@@ -10550,7 +10550,7 @@
         <v>9</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>24</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B427" s="1">
         <v>2</v>
@@ -10571,7 +10571,7 @@
         <v>9</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>24</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="1" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B428" s="1">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>9</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>24</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="1" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="B429" s="1">
         <v>2</v>
@@ -10613,7 +10613,7 @@
         <v>9</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>24</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B430" s="1">
         <v>2</v>
@@ -10634,7 +10634,7 @@
         <v>9</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>24</v>
@@ -10643,7 +10643,7 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="B431" s="1">
         <v>2</v>
@@ -10655,16 +10655,16 @@
         <v>9</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="1" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B432" s="1">
         <v>2</v>
@@ -10676,16 +10676,16 @@
         <v>9</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="1" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B433" s="1">
         <v>2</v>
@@ -10697,7 +10697,7 @@
         <v>9</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>24</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="1" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="B434" s="1">
         <v>2</v>
@@ -10718,16 +10718,16 @@
         <v>9</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="1" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="B435" s="1">
         <v>2</v>
@@ -10739,16 +10739,16 @@
         <v>9</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B436" s="1">
         <v>2</v>
@@ -10760,7 +10760,7 @@
         <v>9</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>24</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B437" s="1">
         <v>2</v>
@@ -10781,7 +10781,7 @@
         <v>9</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>24</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="B438" s="1">
         <v>2</v>
@@ -10802,7 +10802,7 @@
         <v>9</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>24</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B439" s="1">
         <v>2</v>
@@ -10823,7 +10823,7 @@
         <v>9</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>24</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B440" s="1">
         <v>2</v>
@@ -10844,7 +10844,7 @@
         <v>9</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>24</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B441" s="1">
         <v>2</v>
@@ -10865,7 +10865,7 @@
         <v>9</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>24</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B442" s="1">
         <v>2</v>
@@ -10886,7 +10886,7 @@
         <v>9</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>24</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="1" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="B443" s="1">
         <v>2</v>
@@ -10907,16 +10907,16 @@
         <v>9</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G443" s="1"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="1" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B444" s="1">
         <v>2</v>
@@ -10928,19 +10928,19 @@
         <v>9</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>44</v>
+        <v>222</v>
+      </c>
+      <c r="B445" s="1">
+        <v>2</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>8</v>
@@ -10949,19 +10949,19 @@
         <v>9</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
+      </c>
+      <c r="B446" s="1">
+        <v>2</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>8</v>
@@ -10970,19 +10970,19 @@
         <v>9</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>8</v>
@@ -10991,16 +10991,16 @@
         <v>9</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>44</v>
@@ -11012,16 +11012,16 @@
         <v>9</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="1" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>44</v>
@@ -11033,16 +11033,16 @@
         <v>9</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="1" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>44</v>
@@ -11054,16 +11054,16 @@
         <v>9</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="1" t="s">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>44</v>
@@ -11075,16 +11075,16 @@
         <v>9</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>44</v>
@@ -11096,16 +11096,16 @@
         <v>9</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="1" t="s">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>44</v>
@@ -11117,16 +11117,16 @@
         <v>9</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>44</v>
@@ -11138,7 +11138,7 @@
         <v>9</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>18</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="1" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>44</v>
@@ -11159,16 +11159,16 @@
         <v>9</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>44</v>
@@ -11180,7 +11180,7 @@
         <v>9</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>315</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>44</v>
@@ -11201,16 +11201,16 @@
         <v>9</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="G457" s="1"/>
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="1" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>44</v>
@@ -11222,16 +11222,16 @@
         <v>9</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G458" s="1"/>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>44</v>
@@ -11243,16 +11243,16 @@
         <v>9</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G459" s="1"/>
     </row>
     <row r="460" spans="1:7">
       <c r="A460" s="1" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>44</v>
@@ -11264,7 +11264,7 @@
         <v>9</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>315</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="1" t="s">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>44</v>
@@ -11285,16 +11285,16 @@
         <v>9</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="G461" s="1"/>
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>44</v>
@@ -11306,16 +11306,16 @@
         <v>9</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G462" s="1"/>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>44</v>
@@ -11327,7 +11327,7 @@
         <v>9</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>315</v>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>44</v>
@@ -11348,16 +11348,16 @@
         <v>9</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>44</v>
@@ -11369,16 +11369,16 @@
         <v>9</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="1" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>44</v>
@@ -11390,16 +11390,16 @@
         <v>9</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="1" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>44</v>
@@ -11411,16 +11411,16 @@
         <v>9</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="1" t="s">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>44</v>
@@ -11432,16 +11432,16 @@
         <v>9</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>44</v>
@@ -11453,7 +11453,7 @@
         <v>9</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>11</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>44</v>
@@ -11474,7 +11474,7 @@
         <v>9</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>11</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>44</v>
@@ -11495,7 +11495,7 @@
         <v>9</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>11</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="1" t="s">
-        <v>342</v>
+        <v>139</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>44</v>
@@ -11516,16 +11516,16 @@
         <v>9</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="1" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>44</v>
@@ -11537,16 +11537,16 @@
         <v>9</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>44</v>
@@ -11558,7 +11558,7 @@
         <v>9</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>11</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="1" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>44</v>
@@ -11579,16 +11579,16 @@
         <v>9</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>44</v>
@@ -11600,7 +11600,7 @@
         <v>9</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>315</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="1" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>44</v>
@@ -11621,16 +11621,16 @@
         <v>9</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>44</v>
@@ -11642,16 +11642,16 @@
         <v>9</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="1" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>44</v>
@@ -11663,16 +11663,16 @@
         <v>9</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>44</v>
@@ -11684,16 +11684,16 @@
         <v>9</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="1" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>44</v>
@@ -11705,16 +11705,16 @@
         <v>9</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>44</v>
@@ -11726,16 +11726,16 @@
         <v>9</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7">
       <c r="A483" s="1" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>44</v>
@@ -11747,16 +11747,16 @@
         <v>9</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>44</v>
@@ -11768,7 +11768,7 @@
         <v>9</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>24</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>44</v>
@@ -11789,7 +11789,7 @@
         <v>9</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>24</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>44</v>
@@ -11810,16 +11810,16 @@
         <v>9</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>44</v>
@@ -11831,7 +11831,7 @@
         <v>9</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>24</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>44</v>
@@ -11852,7 +11852,7 @@
         <v>9</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>24</v>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>44</v>
@@ -11873,7 +11873,7 @@
         <v>9</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>24</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>44</v>
@@ -11894,7 +11894,7 @@
         <v>9</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>24</v>
@@ -11903,7 +11903,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>44</v>
@@ -11915,7 +11915,7 @@
         <v>9</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>24</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>44</v>
@@ -11936,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>24</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>44</v>
@@ -11957,7 +11957,7 @@
         <v>9</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>24</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>44</v>
@@ -11978,7 +11978,7 @@
         <v>9</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>24</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>44</v>
@@ -11999,7 +11999,7 @@
         <v>9</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>24</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>44</v>
@@ -12020,7 +12020,7 @@
         <v>9</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>24</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>44</v>
@@ -12041,7 +12041,7 @@
         <v>9</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>24</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>44</v>
@@ -12062,7 +12062,7 @@
         <v>9</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>24</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>44</v>
@@ -12083,7 +12083,7 @@
         <v>9</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>24</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>44</v>
@@ -12104,7 +12104,7 @@
         <v>9</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>24</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>44</v>
@@ -12125,7 +12125,7 @@
         <v>9</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>24</v>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>44</v>
@@ -12146,7 +12146,7 @@
         <v>9</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>24</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>44</v>
@@ -12167,7 +12167,7 @@
         <v>9</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>24</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>44</v>
@@ -12188,7 +12188,7 @@
         <v>9</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>24</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>44</v>
@@ -12209,7 +12209,7 @@
         <v>9</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>24</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>44</v>
@@ -12230,7 +12230,7 @@
         <v>9</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>24</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>44</v>
@@ -12251,7 +12251,7 @@
         <v>9</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>24</v>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>44</v>
@@ -12272,7 +12272,7 @@
         <v>9</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>24</v>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>44</v>
@@ -12293,7 +12293,7 @@
         <v>9</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>24</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>44</v>
@@ -12314,7 +12314,7 @@
         <v>9</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>24</v>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>44</v>
@@ -12335,7 +12335,7 @@
         <v>9</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>24</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>44</v>
@@ -12356,7 +12356,7 @@
         <v>9</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>24</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>44</v>
@@ -12377,7 +12377,7 @@
         <v>9</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>24</v>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>44</v>
@@ -12398,7 +12398,7 @@
         <v>9</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>24</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>44</v>
@@ -12419,7 +12419,7 @@
         <v>9</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>24</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>44</v>
@@ -12440,7 +12440,7 @@
         <v>9</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>24</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>44</v>
@@ -12461,7 +12461,7 @@
         <v>9</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>24</v>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>44</v>
@@ -12482,7 +12482,7 @@
         <v>9</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>24</v>
@@ -12491,7 +12491,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>44</v>
@@ -12503,7 +12503,7 @@
         <v>9</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>24</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>44</v>
@@ -12524,7 +12524,7 @@
         <v>9</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>24</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>44</v>
@@ -12545,7 +12545,7 @@
         <v>9</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>24</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>44</v>
@@ -12566,16 +12566,16 @@
         <v>9</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G522" s="1"/>
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>44</v>
@@ -12587,16 +12587,16 @@
         <v>9</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G523" s="1"/>
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>44</v>
@@ -12608,16 +12608,16 @@
         <v>9</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G524" s="1"/>
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>44</v>
@@ -12629,16 +12629,16 @@
         <v>9</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G525" s="1"/>
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>44</v>
@@ -12650,16 +12650,16 @@
         <v>9</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G526" s="1"/>
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>44</v>
@@ -12671,16 +12671,16 @@
         <v>9</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G527" s="1"/>
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>44</v>
@@ -12692,16 +12692,16 @@
         <v>9</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G528" s="1"/>
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>44</v>
@@ -12713,7 +12713,7 @@
         <v>9</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>24</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>44</v>
@@ -12734,7 +12734,7 @@
         <v>9</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>24</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>44</v>
@@ -12755,7 +12755,7 @@
         <v>9</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>24</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>44</v>
@@ -12776,16 +12776,16 @@
         <v>9</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G532" s="1"/>
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>44</v>
@@ -12797,7 +12797,7 @@
         <v>9</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>24</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>44</v>
@@ -12818,7 +12818,7 @@
         <v>9</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>24</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>44</v>
@@ -12839,16 +12839,16 @@
         <v>9</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G535" s="1"/>
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>44</v>
@@ -12860,7 +12860,7 @@
         <v>9</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>24</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>44</v>
@@ -12881,7 +12881,7 @@
         <v>9</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>24</v>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>44</v>
@@ -12902,7 +12902,7 @@
         <v>9</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>24</v>
@@ -12911,24 +12911,87 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G539" s="1"/>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G540" s="1"/>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G541" s="1"/>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E539" s="1" t="s">
+      <c r="B542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E542" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F539" s="1" t="s">
+      <c r="F542" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G539" s="1"/>
+      <c r="G542" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
